--- a/tut06/output/2001CE60.xlsx
+++ b/tut06/output/2001CE60.xlsx
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -757,7 +757,9 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -866,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -887,7 +889,9 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
